--- a/Data/Transitions/19111917Translation.xlsx
+++ b/Data/Transitions/19111917Translation.xlsx
@@ -181,7 +181,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -238,7 +238,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -262,7 +262,7 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -340,10 +340,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.03254877942077172}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9674512205792283}</t>
+    <t>{179.0: 1.0, 180.0: 0.02915132042943343}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9708486795705665}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -370,7 +370,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -463,6 +463,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -544,7 +547,7 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
+    <t>{276.0: 0.6650608980185421}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -661,9 +664,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -673,7 +673,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -823,7 +823,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 1.0, 837.0: 0.01338007096139871}</t>
+    <t>{486.0: 1.0, 837.0: 0.013730780197846066}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 1.0, 144.0: 0.034806930308445345}</t>
+    <t>{581.0: 1.0, 144.0: 0.03482857809220244}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1009,7 +1009,7 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1033,7 +1033,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1063,7 +1063,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,7 +1138,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1177,7 +1177,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9440644637284658}</t>
+    <t>{837.0: 0.9425983198438288}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1501,7 +1501,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1588,7 +1588,7 @@
     <t>{910.0: 0.1834781652183478}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1690,7 +1690,7 @@
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9629593288524755, 565.0: 0.0370406711475249}</t>
+    <t>{564.0: 0.9653144668534938, 565.0: 0.03468553314650618}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1702,7 +1702,7 @@
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752854}</t>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352795}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1729,7 +1729,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9594929732708736, 917.0: 0.04050702672912648}</t>
+    <t>{754.0: 0.9221480775341596, 917.0: 0.07785192246584048}</t>
   </si>
   <si>
     <t>{837.0: 1.0}</t>
@@ -1750,7 +1750,7 @@
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
+    <t>{940.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
 </sst>
 </file>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3852,40 +3852,40 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>551</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3962,29 +3962,29 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>552</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>170</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4039,29 +4039,29 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>553</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>553</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
